--- a/doc/x86-x64.xlsx
+++ b/doc/x86-x64.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\bsdk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA08037-8200-46E2-A12A-85DED2E4FECF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F332B-5370-41BC-AFF9-A9CA5BD9EE54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25320" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25320" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CC{32,16}" sheetId="10" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="371">
   <si>
     <t>Type</t>
   </si>
@@ -1538,6 +1538,30 @@
   </si>
   <si>
     <t>interrupt</t>
+  </si>
+  <si>
+    <t>_MSC_VER</t>
+  </si>
+  <si>
+    <t>_MSC_FULL_VER</t>
+  </si>
+  <si>
+    <t>1929</t>
+  </si>
+  <si>
+    <t>MSC:19.35.32217.1{v143}</t>
+  </si>
+  <si>
+    <t>MSC:19.29.30148{v142}</t>
+  </si>
+  <si>
+    <t>MSC:16.00.40219.01{v100}</t>
+  </si>
+  <si>
+    <t>ANY</t>
+  </si>
+  <si>
+    <t>MSC:15.00.21022.08{v80}</t>
   </si>
 </sst>
 </file>
@@ -1690,7 +1714,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1763,12 +1787,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1910,6 +1947,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1928,25 +1995,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2266,7 +2318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C48DDE-E52B-4662-A997-B667437A6ADD}">
   <dimension ref="A2:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -2280,12 +2332,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="65" t="s">
         <v>355</v>
       </c>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="55" t="s">
@@ -2302,13 +2354,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="57" t="s">
         <v>360</v>
       </c>
       <c r="D4" s="27" t="s">
@@ -2319,19 +2371,19 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="B5" s="64" t="s">
+      <c r="B5" s="57" t="s">
         <v>359</v>
       </c>
       <c r="C5" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="D5" s="57" t="s">
         <v>361</v>
       </c>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="57" t="s">
         <v>361</v>
       </c>
     </row>
@@ -2467,15 +2519,15 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="59"/>
+      <c r="B2" s="67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="69"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18"/>
       <c r="K2" s="18"/>
@@ -2492,20 +2544,20 @@
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="Z2" s="56"/>
+      <c r="Z2" s="66"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="67" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="57" t="s">
+      <c r="C3" s="69"/>
+      <c r="D3" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="59"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="11" t="s">
         <v>85</v>
       </c>
@@ -2518,39 +2570,39 @@
       <c r="I3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="K3" s="59"/>
+      <c r="K3" s="69"/>
       <c r="L3" s="12" t="s">
         <v>95</v>
       </c>
       <c r="M3" s="33" t="s">
         <v>316</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="67" t="s">
         <v>97</v>
       </c>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="59"/>
-      <c r="R3" s="57" t="s">
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="67" t="s">
         <v>319</v>
       </c>
-      <c r="S3" s="59"/>
-      <c r="T3" s="57" t="s">
+      <c r="S3" s="69"/>
+      <c r="T3" s="67" t="s">
         <v>320</v>
       </c>
-      <c r="U3" s="59"/>
-      <c r="V3" s="57" t="s">
+      <c r="U3" s="69"/>
+      <c r="V3" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="W3" s="58"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="57" t="s">
+      <c r="W3" s="68"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="Z3" s="59"/>
+      <c r="Z3" s="69"/>
     </row>
     <row r="4" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
@@ -8844,13 +8896,13 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="60" t="s">
+      <c r="A39" s="70" t="s">
         <v>296</v>
       </c>
-      <c r="B39" s="60"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
+      <c r="B39" s="70"/>
+      <c r="C39" s="70"/>
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -8881,14 +8933,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B2" s="62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
+      <c r="B2" s="72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
       <c r="J2" s="42"/>
       <c r="K2" s="42"/>
       <c r="L2" s="42"/>
@@ -8897,14 +8949,14 @@
       <c r="O2" s="42"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="71" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61" t="s">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="E3" s="61"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="53" t="s">
         <v>216</v>
       </c>
@@ -9854,19 +9906,23 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="31" t="s">
         <v>85</v>
       </c>
@@ -9879,41 +9935,119 @@
       <c r="E1" s="31" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="F1" s="61" t="s">
+        <v>370</v>
+      </c>
+      <c r="G1" s="56" t="s">
+        <v>368</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="63" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F2" s="63" t="s">
+        <v>369</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>212</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="4" t="s">
         <v>214</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26">
+        <v>1500</v>
+      </c>
+      <c r="G4" s="26">
+        <v>1600</v>
+      </c>
+      <c r="H4" s="64" t="s">
+        <v>365</v>
+      </c>
+      <c r="I4" s="64">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26">
+        <v>150021022</v>
+      </c>
+      <c r="G5" s="26">
+        <v>160040219</v>
+      </c>
+      <c r="H5" s="64">
+        <v>192930148</v>
+      </c>
+      <c r="I5" s="64">
+        <v>193532217</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9933,10 +10067,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="63"/>
+      <c r="C1" s="65"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -10832,13 +10966,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
@@ -10900,96 +11034,96 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" style="66"/>
-    <col min="2" max="2" width="41.5703125" style="66" customWidth="1"/>
-    <col min="3" max="4" width="15.42578125" style="66"/>
-    <col min="5" max="5" width="43.85546875" style="66" customWidth="1"/>
-    <col min="6" max="16384" width="15.42578125" style="66"/>
+    <col min="1" max="1" width="15.42578125" style="59"/>
+    <col min="2" max="2" width="41.5703125" style="59" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" style="59"/>
+    <col min="5" max="5" width="43.85546875" style="59" customWidth="1"/>
+    <col min="6" max="16384" width="15.42578125" style="59"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="58" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="58" t="s">
         <v>337</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="59" t="s">
         <v>330</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="59" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="59" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="59" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="59" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="59" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="59" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="59" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="59" t="s">
         <v>340</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="59" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="59" t="s">
         <v>326</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="59" t="s">
         <v>342</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="59" t="s">
         <v>343</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="59" t="s">
         <v>344</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="59" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="59" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="59" t="s">
         <v>328</v>
       </c>
     </row>

--- a/doc/x86-x64.xlsx
+++ b/doc/x86-x64.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TFS\bsdk\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439F332B-5370-41BC-AFF9-A9CA5BD9EE54}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD58A54-EBFD-444E-8A70-EDECAD6E8565}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25320" windowHeight="11295" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9909,7 +9909,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
